--- a/Emissao/Dados_Emissao/Editado/Leonardo_Torrezan_Bataiola.xlsx
+++ b/Emissao/Dados_Emissao/Editado/Leonardo_Torrezan_Bataiola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,17 +564,18 @@
           <t>Frota Itens</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ZeradoMes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>531</v>
-      </c>
-      <c r="C2" t="n">
-        <v>990</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>438409</t>
@@ -585,51 +586,17 @@
           <t>ADRIANA MESSIAS CORR SEGS LTDA M</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>186703</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>GISELAINE GUIMARAES LOPES</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.291,85</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.829,98</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
@@ -671,23 +638,20 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>531</v>
-      </c>
-      <c r="C3" t="n">
-        <v>990</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>438409</t>
@@ -698,60 +662,26 @@
           <t>ADRIANA MESSIAS CORR SEGS LTDA M</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>187003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>HELIENE GARCIA FELIX</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.293,69</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.462,96</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -784,12 +714,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -799,12 +730,12 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>438409</t>
+          <t>490085</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ADRIANA MESSIAS CORR SEGS LTDA M</t>
+          <t>ADSEG CORRETORA DE SEGUROS EIREL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -821,12 +752,12 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -861,6 +792,11 @@
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -870,12 +806,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>490085</t>
+          <t>405248</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ADSEG CORRETORA DE SEGUROS EIREL</t>
+          <t>ALIANCA ADMR CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -932,6 +868,11 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -941,12 +882,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>405248</t>
+          <t>403558</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ALIANCA ADMR CORR SEGS LTDA</t>
+          <t>AMBRIZZI ADM ASSES.COR DE SEG RA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1003,72 +944,39 @@
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>531</v>
-      </c>
-      <c r="C7" t="n">
-        <v>990</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>403558</t>
+          <t>510945</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AMBRIZZI ADM ASSES.COR DE SEG RA</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>186967</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ELETRO METALURGICA VENTI DELTA LTDA</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.091,06</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.392,98</t>
-        </is>
-      </c>
+          <t>ANCRISA CORRETORA DE SEGUROS LTD</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
@@ -1110,78 +1018,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>531</v>
-      </c>
-      <c r="C8" t="n">
-        <v>990</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>403558</t>
+          <t>497274</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AMBRIZZI ADM ASSES.COR DE SEG RA</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>186968</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ELETRO METALURGICA VENTI DELTA LTDA</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.670,03</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.309,87</t>
-        </is>
-      </c>
+          <t>AS CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
@@ -1223,78 +1094,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>531</v>
-      </c>
-      <c r="C9" t="n">
-        <v>990</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>403558</t>
+          <t>511383</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AMBRIZZI ADM ASSES.COR DE SEG RA</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>186969</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ELETRO METALURGICA VENTI DELTA LTDA</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.720,02</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.142,15</t>
-        </is>
-      </c>
+          <t>BALURA CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
@@ -1336,78 +1170,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>531</v>
-      </c>
-      <c r="C10" t="n">
-        <v>990</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>403558</t>
+          <t>404515</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AMBRIZZI ADM ASSES.COR DE SEG RA</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>186970</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>ELETRO METALURGICA VENTI DELTA LTDA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.235,50</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.917,08</t>
-        </is>
-      </c>
+          <t>BEMVIDA CORR DE SEGUROS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
@@ -1449,12 +1246,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1464,12 +1262,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>510945</t>
+          <t>404515</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ANCRISA CORRETORA DE SEGUROS LTD</t>
+          <t>BEMVIDA CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1486,12 +1284,12 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1526,6 +1324,11 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1535,30 +1338,30 @@
         <v>531</v>
       </c>
       <c r="C12" t="n">
-        <v>990</v>
+        <v>927</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>497274</t>
+          <t>510928</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AS CORRETORA DE SEGUROS LTDA</t>
+          <t>BENEVOLA CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>178032</v>
+        <v>54913</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>66156</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TRANS PH LIMITADA</t>
+          <t>GUSTAVO CALLEGARI ALVES TREMURA</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1566,30 +1369,30 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14.799,15</t>
+          <t xml:space="preserve"> 171,43</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.891,32</t>
+          <t xml:space="preserve"> 184,07</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1635,85 +1438,48 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Residencial Sob Medida</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>531</v>
-      </c>
-      <c r="C13" t="n">
-        <v>990</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>497274</t>
+          <t>404168</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AS CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>186788</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>C C LIMA TRANSPORTES</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 120.134,52</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 129.000,44</t>
-        </is>
-      </c>
+          <t>BOM CAMINHO CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1746,18 +1512,17 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Frota</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v>4</v>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>531</v>
@@ -1767,26 +1532,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>511383</t>
+          <t>414832</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BALURA CORRETORA DE SEGUROS LTDA</t>
+          <t>BRANKO MARQUES COR DE SEG LTDA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>170395</v>
+        <v>188527</v>
       </c>
       <c r="G14" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>66068</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>J H N TRANSPORTES E SERVICOS LTDA</t>
+          <t>MARINALDO DIOGO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1794,30 +1559,30 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 662,43</t>
+          <t xml:space="preserve"> 2.194,97</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 711,31</t>
+          <t xml:space="preserve"> 2.356,95</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1867,81 +1632,44 @@
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>531</v>
-      </c>
-      <c r="C15" t="n">
-        <v>990</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>511383</t>
+          <t>414832</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BALURA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>170395</v>
-      </c>
-      <c r="G15" t="n">
-        <v>48</v>
-      </c>
-      <c r="H15" t="n">
-        <v>66069</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>J H N TRANSPORTES E SERVICOS LTDA</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2024-11-13</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 662,43</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 711,31</t>
-        </is>
-      </c>
+          <t>BRANKO MARQUES COR DE SEG LTDA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1974,78 +1702,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B16" t="n">
-        <v>531</v>
-      </c>
-      <c r="C16" t="n">
-        <v>990</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>511383</t>
+          <t>405402</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BALURA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>170395</v>
-      </c>
-      <c r="G16" t="n">
-        <v>49</v>
-      </c>
-      <c r="H16" t="n">
-        <v>66070</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>J H N TRANSPORTES E SERVICOS LTDA</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2024-11-13</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 662,43</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 711,33</t>
-        </is>
-      </c>
+          <t>CAPINTER ADM CORR SEG LTDA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
@@ -2087,27 +1778,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>404515</t>
+          <t>405402</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BEMVIDA CORR DE SEGUROS LTDA ME</t>
+          <t>CAPINTER ADM CORR SEG LTDA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -2124,12 +1816,12 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2164,21 +1856,26 @@
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>404515</t>
+          <t>443353</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BEMVIDA CORR DE SEGUROS LTDA ME</t>
+          <t>CARLA IMEDIATTA CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -2195,12 +1892,12 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2235,81 +1932,48 @@
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" t="n">
-        <v>531</v>
-      </c>
-      <c r="C19" t="n">
-        <v>927</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>510928</t>
+          <t>443353</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BENEVOLA CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>54008</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ADILSON LUIZ SALVADOR JUNIOR</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 193,73</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208,02</t>
-        </is>
-      </c>
+          <t>CARLA IMEDIATTA CORRETORA DE SEG</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2342,27 +2006,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>404168</t>
+          <t>510070</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BOM CAMINHO CORRETORA DE SEGUROS</t>
+          <t>CHIQUETTO CORRETORA DE SEGUROS E</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -2379,12 +2044,12 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2419,72 +2084,39 @@
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B21" t="n">
-        <v>531</v>
-      </c>
-      <c r="C21" t="n">
-        <v>990</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>414832</t>
+          <t>497070</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BRANKO MARQUES COR DE SEG LTDA</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>186717</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>NILDOMAR OSVALDO MARQUES</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>4</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.071,26</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.371,71</t>
-        </is>
-      </c>
+          <t>CMARTINEZ CORRETORA DE SEGUROS L</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
@@ -2526,27 +2158,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>414832</t>
+          <t>401872</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BRANKO MARQUES COR DE SEG LTDA</t>
+          <t>COLAVITE ADMR.COR.SEG.S/C LTDA.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -2603,21 +2236,26 @@
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>405402</t>
+          <t>490341</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CAPINTER ADM CORR SEG LTDA</t>
+          <t>COLAVITE ADMR.COR.SEG.S/C LTDA.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2674,21 +2312,26 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>405402</t>
+          <t>405211</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CAPINTER ADM CORR SEG LTDA</t>
+          <t>COMPRO-SEG ADMR.CORR.SEGS.LTDA.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2705,12 +2348,12 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2745,21 +2388,26 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>443353</t>
+          <t>502355</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CARLA IMEDIATTA CORRETORA DE SEG</t>
+          <t>D E I LOPES CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2816,43 +2464,86 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>531</v>
+      </c>
+      <c r="C26" t="n">
+        <v>990</v>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>443353</t>
+          <t>507478</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CARLA IMEDIATTA CORRETORA DE SEG</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+          <t>DECCO CORRETORA SEG FERNANDOPOLI</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>188576</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>HONORIO BERNARDO PINTO NETO</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.769,20</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.899,76</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2885,23 +2576,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>510070</t>
+          <t>404909</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CHIQUETTO CORRETORA DE SEGUROS E</t>
+          <t>DECISAO ADM.E CORR.SEGS.S/C LTDA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2918,12 +2614,12 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2958,21 +2654,26 @@
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>497070</t>
+          <t>404910</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CMARTINEZ CORRETORA DE SEGUROS L</t>
+          <t>DECISAO ADM.E CORR.SEGS.S/C LTDA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -3029,21 +2730,26 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>401872</t>
+          <t>504110</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>COLAVITE ADMR.COR.SEG.S/C LTDA.</t>
+          <t>ESTEVES CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -3060,12 +2766,12 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3100,72 +2806,39 @@
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B30" t="n">
-        <v>531</v>
-      </c>
-      <c r="C30" t="n">
-        <v>600</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>490341</t>
+          <t>404557</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>COLAVITE ADMR.COR.SEG.S/C LTDA.</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2769</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>JOAO CARLOS MORANTE</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2025-09-20</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.286,73</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.286,73</t>
-        </is>
-      </c>
+          <t>EUROCRED MIRASSOL CORR DE SEGS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
@@ -3207,78 +2880,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Equipamento Agricola</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B31" t="n">
-        <v>531</v>
-      </c>
-      <c r="C31" t="n">
-        <v>990</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>490341</t>
+          <t>488327</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>COLAVITE ADMR.COR.SEG.S/C LTDA.</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>186579</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>MAURO TONON</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>4</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.765,32</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.969,40</t>
-        </is>
-      </c>
+          <t>FERRANTI CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
@@ -3320,78 +2956,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B32" t="n">
-        <v>531</v>
-      </c>
-      <c r="C32" t="n">
-        <v>990</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>490341</t>
+          <t>405045</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>COLAVITE ADMR.COR.SEG.S/C LTDA.</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>186648</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>MARCOS HIDEYOSHI KITAYAMA</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>4</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.691,66</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.964,10</t>
-        </is>
-      </c>
+          <t>FLAMA ADM E COR DE SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
@@ -3433,87 +3032,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B33" t="n">
-        <v>531</v>
-      </c>
-      <c r="C33" t="n">
-        <v>990</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>405211</t>
+          <t>405045</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>COMPRO-SEG ADMR.CORR.SEGS.LTDA.</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>187098</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>EDNA APARECIDA ORTEGA VICENTIN</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2024-10-10</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>10</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.413,72</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.591,85</t>
-        </is>
-      </c>
+          <t>FLAMA ADM E COR DE SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3546,87 +3108,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B34" t="n">
-        <v>531</v>
-      </c>
-      <c r="C34" t="n">
-        <v>990</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>502355</t>
+          <t>402415</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>D E I LOPES CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>186677</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>VANDERLEI ALESSANDRO DA SILVA</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>10</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.526,45</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.860,50</t>
-        </is>
-      </c>
+          <t>FUZZARI COR E ADM SEGS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3659,78 +3184,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B35" t="n">
-        <v>531</v>
-      </c>
-      <c r="C35" t="n">
-        <v>990</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>507478</t>
+          <t>507299</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DECCO CORRETORA SEG FERNANDOPOLI</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>186626</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ENY DIAS GUIMARAES VILA</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2024-10-10</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>10</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.351,08</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.450,78</t>
-        </is>
-      </c>
+          <t>FUZZASEG CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
@@ -3772,87 +3260,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B36" t="n">
-        <v>531</v>
-      </c>
-      <c r="C36" t="n">
-        <v>990</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>507478</t>
+          <t>494168</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DECCO CORRETORA SEG FERNANDOPOLI</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>186993</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>EVERTON CASTELLI FERRACA</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2024-10-13</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>10</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.799,96</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.932,79</t>
-        </is>
-      </c>
+          <t>GISAIELO CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3885,78 +3336,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B37" t="n">
-        <v>531</v>
-      </c>
-      <c r="C37" t="n">
-        <v>990</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>507478</t>
+          <t>502731</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DECCO CORRETORA SEG FERNANDOPOLI</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>187088</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>EDMAR ELIAS DORNELLI</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2024-10-17</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2025-10-17</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>10</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.646,42</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.767,92</t>
-        </is>
-      </c>
+          <t>GISAIELO CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
@@ -3998,27 +3412,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>404909</t>
+          <t>493621</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DECISAO ADM.E CORR.SEGS.S/C LTDA</t>
+          <t>HAZO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4035,12 +3450,12 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -4075,72 +3490,39 @@
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B39" t="n">
-        <v>531</v>
-      </c>
-      <c r="C39" t="n">
-        <v>990</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>404910</t>
+          <t>405448</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DECISAO ADM.E CORR.SEGS.S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>186966</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>ALEXANDRE LATUFE C. TUFAILE</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>10</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.639,64</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.129,64</t>
-        </is>
-      </c>
+          <t>IBLF ADM.E CORRETORA SEGS.SC LT</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
@@ -4182,27 +3564,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>504110</t>
+          <t>404589</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ESTEVES CORRETORA DE SEGUROS</t>
+          <t>IDEAL CORR SEGS FERNANDÓPOLIS LT</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -4259,21 +3642,26 @@
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>404557</t>
+          <t>404589</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EUROCRED MIRASSOL CORR DE SEGS</t>
+          <t>IDEAL CORR SEGS FERNANDÓPOLIS LT</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4290,12 +3678,12 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4330,81 +3718,48 @@
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B42" t="n">
-        <v>531</v>
-      </c>
-      <c r="C42" t="n">
-        <v>927</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>488327</t>
+          <t>496766</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FERRANTI CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>54197</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>ODETE MIQUELETTI ARIOZI</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>6</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 392,22</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 421,14</t>
-        </is>
-      </c>
+          <t>IMEDIATTA CORR DE SEGUROS DE JAL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4437,78 +3792,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B43" t="n">
-        <v>531</v>
-      </c>
-      <c r="C43" t="n">
-        <v>990</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>405045</t>
+          <t>502753</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FLAMA ADM E COR DE SEGS LTDA</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>186951</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>PAULO DE SOUZA</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>4</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.388,01</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.490,44</t>
-        </is>
-      </c>
+          <t>IMEDIATTA CORR DE SEGUROS DE JAL</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
@@ -4550,27 +3868,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>405045</t>
+          <t>401830</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FLAMA ADM E COR DE SEGS LTDA</t>
+          <t>J A S NHANDEARA COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -4587,12 +3906,12 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4627,21 +3946,26 @@
       </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>402415</t>
+          <t>401830</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FUZZARI COR E ADM SEGS LTDA ME</t>
+          <t>J A S NHANDEARA COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -4698,21 +4022,26 @@
       </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>507299</t>
+          <t>404228</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FUZZASEG CORRETORA DE SEGUROS LT</t>
+          <t>M D J CONSULT &amp; COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -4769,43 +4098,86 @@
       </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>531</v>
+      </c>
+      <c r="C47" t="n">
+        <v>927</v>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>494168</t>
+          <t>405168</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>GISAIELO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+          <t>M.M.S. COR DE SEGS S/C LTDA ME</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>54906</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>MARCELO FACHIN</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.386,05</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.488,33</t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -4838,36 +4210,79 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>531</v>
+      </c>
+      <c r="C48" t="n">
+        <v>927</v>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>502731</t>
+          <t>405168</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>GISAIELO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+          <t>M.M.S. COR DE SEGS S/C LTDA ME</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>54912</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>LUIS EUGENIO PASSARIN</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 696,12</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 747,48</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
@@ -4909,36 +4324,79 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>531</v>
+      </c>
+      <c r="C49" t="n">
+        <v>927</v>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>493621</t>
+          <t>405168</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HAZO CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+          <t>M.M.S. COR DE SEGS S/C LTDA ME</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>54931</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ANTONIO PEREZ Y FERNANDES</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 497,11</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 533,78</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
@@ -4980,74 +4438,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B50" t="n">
-        <v>531</v>
-      </c>
-      <c r="C50" t="n">
-        <v>927</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>405448</t>
+          <t>436960</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>IBLF ADM.E CORRETORA SEGS.SC LT</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>54022</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>DANIEL SARMENTO DE OLIVEIRA JUNIOR</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208,24</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 223,60</t>
-        </is>
-      </c>
+          <t>MARCOS ROBERTO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
@@ -5089,35 +4514,36 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>531</v>
       </c>
       <c r="C51" t="n">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>405448</t>
+          <t>403525</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>IBLF ADM.E CORRETORA SEGS.SC LT</t>
+          <t>MULTILINK CORR E ADMR DE SEGS LT</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>54062</v>
+        <v>188524</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -5127,7 +4553,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>MARIA ANGELA PEREIRA DE CARVALHO</t>
+          <t>THIAGO DE SOUZA SIMONATO</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -5135,30 +4561,30 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106,88</t>
+          <t xml:space="preserve"> 1.420,86</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 114,76</t>
+          <t xml:space="preserve"> 1.525,71</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
@@ -5204,25 +4630,26 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Residencial Sob Medida</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>404589</t>
+          <t>506075</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>IDEAL CORR SEGS FERNANDÓPOLIS LT</t>
+          <t>MURIEL ADM E CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -5279,21 +4706,26 @@
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>404589</t>
+          <t>403144</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>IDEAL CORR SEGS FERNANDÓPOLIS LT</t>
+          <t>MURIEL PREV COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -5310,12 +4742,12 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -5350,21 +4782,26 @@
       </c>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>496766</t>
+          <t>403144</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>IMEDIATTA CORR DE SEGUROS DE JAL</t>
+          <t>MURIEL PREV COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -5421,21 +4858,26 @@
       </c>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>502753</t>
+          <t>507047</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>IMEDIATTA CORR DE SEGUROS DE JAL</t>
+          <t>NDP CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -5492,72 +4934,39 @@
       </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B56" t="n">
-        <v>531</v>
-      </c>
-      <c r="C56" t="n">
-        <v>990</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>401830</t>
+          <t>510542</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>J A S NHANDEARA COR DE SEGS LTDA</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>186737</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>SINESIO SILVA</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>4</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.625,09</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.745,02</t>
-        </is>
-      </c>
+          <t>NOVA MIRASSOL CORRETORA DE SEGUR</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
@@ -5599,27 +5008,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>401830</t>
+          <t>498583</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>J A S NHANDEARA COR DE SEGS LTDA</t>
+          <t>ONO &amp; SHINYA CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -5636,12 +5046,12 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -5676,34 +5086,77 @@
       </c>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>531</v>
+      </c>
+      <c r="C58" t="n">
+        <v>990</v>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>404228</t>
+          <t>404187</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>M D J CONSULT &amp; COR DE SEGS LTDA</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+          <t>PANTANO CORRETORA SEGUROS LTDA M</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>188571</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>LUIZ ISAAC MESSIAS LOLIS</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>10</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.371,61</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.694,23</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
@@ -5745,83 +5198,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B59" t="n">
-        <v>531</v>
-      </c>
-      <c r="C59" t="n">
-        <v>600</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>405168</t>
+          <t>404187</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>M.M.S. COR DE SEGS S/C LTDA ME</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>2773</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>PEDRO GILBERTO MARTUCCI</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>6</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.390,15</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.390,15</t>
-        </is>
-      </c>
+          <t>PANTANO CORRETORA SEGUROS LTDA M</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -5854,78 +5274,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>Equipamento Agricola</t>
-        </is>
-      </c>
+      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B60" t="n">
-        <v>531</v>
-      </c>
-      <c r="C60" t="n">
-        <v>990</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>405168</t>
+          <t>478654</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>M.M.S. COR DE SEGS S/C LTDA ME</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>186573</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>ANTONIO LUIZ TEIXEIRA</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2024-09-22</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2025-09-22</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>10</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.772,08</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.976,65</t>
-        </is>
-      </c>
+          <t>PATRICIA MARIA CAVARIANI ME</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
@@ -5967,87 +5350,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B61" t="n">
-        <v>531</v>
-      </c>
-      <c r="C61" t="n">
-        <v>990</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>436960</t>
+          <t>478654</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MARCOS ROBERTO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>186576</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>KATLLYN CARAN ZANETE</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>4</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.644,38</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.987,13</t>
-        </is>
-      </c>
+          <t>PATRICIA MARIA CAVARIANI ME</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -6080,27 +5426,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>403525</t>
+          <t>403872</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MULTILINK CORR E ADMR DE SEGS LT</t>
+          <t>PAZ GLOBAL CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -6157,81 +5504,48 @@
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B63" t="n">
-        <v>531</v>
-      </c>
-      <c r="C63" t="n">
-        <v>600</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>506075</t>
+          <t>403872</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MURIEL ADM E CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>2779</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>DEBORA RODRIGUES DA SILVA</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>10</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.926,47</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.926,47</t>
-        </is>
-      </c>
+          <t>PAZ GLOBAL CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -6264,87 +5578,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>Equipamento Agricola</t>
-        </is>
-      </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B64" t="n">
-        <v>531</v>
-      </c>
-      <c r="C64" t="n">
-        <v>927</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>506075</t>
+          <t>403832</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MURIEL ADM E CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>53964</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>MAURILIO GONCALVES DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 313,35</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 336,47</t>
-        </is>
-      </c>
+          <t>PERUCCHI CORRET DE SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -6377,78 +5654,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B65" t="n">
-        <v>531</v>
-      </c>
-      <c r="C65" t="n">
-        <v>927</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>506075</t>
+          <t>490313</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MURIEL ADM E CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>53968</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>MAURILIO GONCALVES DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 313,35</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 336,47</t>
-        </is>
-      </c>
+          <t>PERUCCHI CORRET DE SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
@@ -6490,35 +5730,36 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>531</v>
       </c>
       <c r="C66" t="n">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>506075</t>
+          <t>404605</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MURIEL ADM E CORRETORA DE SEGURO</t>
+          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>53969</v>
+        <v>188518</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -6528,7 +5769,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>MAURILIO GONCALVES DE OLIVEIRA</t>
+          <t>VANDERLEI MARCOS</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -6536,30 +5777,30 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 313,35</t>
+          <t xml:space="preserve"> 2.327,66</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 336,47</t>
+          <t xml:space="preserve"> 2.499,44</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
@@ -6605,25 +5846,26 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Residencial Sob Medida</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>403144</t>
+          <t>404605</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MURIEL PREV COR.DE SEGUROS LTDA</t>
+          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -6640,12 +5882,12 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -6680,21 +5922,26 @@
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>403144</t>
+          <t>493988</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MURIEL PREV COR.DE SEGUROS LTDA</t>
+          <t>PROSSEG COR DE SEGS FERNANDOPOLI</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -6751,72 +5998,39 @@
       </c>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B69" t="n">
-        <v>531</v>
-      </c>
-      <c r="C69" t="n">
-        <v>990</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>507047</t>
+          <t>502751</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NDP CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>186605</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>SANDRA ELI LEITE PEREIRA</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>10</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.143,87</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.375,88</t>
-        </is>
-      </c>
+          <t>PROSSEG COR DE SEGS FERNANDOPOLI</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
@@ -6858,40 +6072,79 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>531</v>
+      </c>
+      <c r="C70" t="n">
+        <v>927</v>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>510542</t>
+          <t>404131</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NOVA MIRASSOL CORRETORA DE SEGUR</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+          <t>RAVANA ADM, CONS E CORRET DE SEG</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>54891</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>FRANCISCO COLETA TOBAL</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 446,35</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 479,28</t>
+        </is>
+      </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
@@ -6933,23 +6186,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>498583</t>
+          <t>511438</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ONO &amp; SHINYA CORRETORA DE SEGURO</t>
+          <t>RISSI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -7006,72 +6264,39 @@
       </c>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B72" t="n">
-        <v>531</v>
-      </c>
-      <c r="C72" t="n">
-        <v>927</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>404187</t>
+          <t>511444</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PANTANO CORRETORA SEGUROS LTDA M</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>53954</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>BRUNO SANTANA ALVES</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 146,38</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 157,17</t>
-        </is>
-      </c>
+          <t>S P FRANCO CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
@@ -7113,35 +6338,36 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>531</v>
       </c>
       <c r="C73" t="n">
-        <v>990</v>
+        <v>927</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>404187</t>
+          <t>405449</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PANTANO CORRETORA SEGUROS LTDA M</t>
+          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>187104</v>
+        <v>54899</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -7151,7 +6377,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>THIAGO LUIZ DO PRADO ALMEIDA</t>
+          <t>MARIA DARCI BAZEIA BALBO</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -7159,17 +6385,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -7177,12 +6403,12 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.857,16</t>
+          <t xml:space="preserve"> 567,79</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.994,21</t>
+          <t xml:space="preserve"> 609,67</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
@@ -7228,33 +6454,34 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Residencial Sob Medida</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>531</v>
       </c>
       <c r="C74" t="n">
-        <v>990</v>
+        <v>927</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>404187</t>
+          <t>405449</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PANTANO CORRETORA SEGUROS LTDA M</t>
+          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>187112</v>
+        <v>54901</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -7264,7 +6491,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>HEITOR ROBERTO SIMONATO</t>
+          <t>APARECIDO JOSE DA COSTA</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -7272,30 +6499,30 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.439,79</t>
+          <t xml:space="preserve"> 297,47</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.619,84</t>
+          <t xml:space="preserve"> 319,39</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
@@ -7341,25 +6568,26 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Residencial Sob Medida</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>404187</t>
+          <t>405449</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PANTANO CORRETORA SEGUROS LTDA M</t>
+          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -7416,21 +6644,26 @@
       </c>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>478654</t>
+          <t>405166</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PATRICIA MARIA CAVARIANI ME</t>
+          <t>SEGURANCA ADMR.E CORR.SEGS.LTDA.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -7487,21 +6720,26 @@
       </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>478654</t>
+          <t>404914</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PATRICIA MARIA CAVARIANI ME</t>
+          <t>SEGUROESTE CORR.DE SEGS.S/C LTDA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -7518,12 +6756,12 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -7558,21 +6796,26 @@
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>403872</t>
+          <t>404914</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PAZ GLOBAL CORRETORA DE SEGUROS</t>
+          <t>SEGUROESTE CORR.DE SEGS.S/C LTDA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -7589,12 +6832,12 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -7629,21 +6872,26 @@
       </c>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>403872</t>
+          <t>404049</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PAZ GLOBAL CORRETORA DE SEGUROS</t>
+          <t>TOTAL SUPORT COR DE SEGS E CONS</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -7660,12 +6908,12 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>940</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>FERNANDOPOLIS MERCADO</t>
+          <t>SAO JOSE RIO PRETO MERCADO</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -7700,21 +6948,26 @@
       </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>403832</t>
+          <t>404049</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PERUCCHI CORRET DE SEGS LTDA</t>
+          <t>TOTAL SUPORT COR DE SEGS E CONS</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -7771,21 +7024,26 @@
       </c>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>490313</t>
+          <t>504336</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PERUCCHI CORRET DE SEGS LTDA</t>
+          <t>TOTALIS CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -7842,72 +7100,39 @@
       </c>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B82" t="n">
-        <v>531</v>
-      </c>
-      <c r="C82" t="n">
-        <v>600</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>404605</t>
+          <t>402465</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>2787</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>CREZEDES ROBERTO DO CARMO RODRIGUES</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>6</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.366,33</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.366,33</t>
-        </is>
-      </c>
+          <t>TUTA ADM E CORR DE SEGS SC LTDA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
@@ -7949,87 +7174,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>Equipamento Agricola</t>
-        </is>
-      </c>
+      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B83" t="n">
-        <v>531</v>
-      </c>
-      <c r="C83" t="n">
-        <v>990</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>404605</t>
+          <t>402465</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>186562</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>JULIANA DA SILVA MARTINS</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>2025-09-20</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.563,80</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.269,60</t>
-        </is>
-      </c>
+          <t>TUTA ADM E CORR DE SEGS SC LTDA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -8062,78 +7250,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B84" t="n">
-        <v>531</v>
-      </c>
-      <c r="C84" t="n">
-        <v>990</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>404605</t>
+          <t>403807</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>186607</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>SUELI FERREIRA PANTANO BENTO</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>10</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.868,70</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.006,61</t>
-        </is>
-      </c>
+          <t>UNICA MENEZES ASSES ADM COR SEG</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
@@ -8175,87 +7326,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B85" t="n">
-        <v>531</v>
-      </c>
-      <c r="C85" t="n">
-        <v>990</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>404605</t>
+          <t>403807</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>186827</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>EDINESIO ANTONIO DA CRUZ</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>2024-09-29</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>10</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.419,42</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.597,97</t>
-        </is>
-      </c>
+          <t>UNICA MENEZES ASSES ADM COR SEG</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -8288,27 +7402,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>404605</t>
+          <t>403808</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
+          <t>UNICA MENEZES ASSES ADM COR SEG</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -8365,21 +7480,26 @@
       </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>493988</t>
+          <t>401202</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PROSSEG COR DE SEGS FERNANDOPOLI</t>
+          <t>VALDIR DECCO</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -8436,21 +7556,26 @@
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>502751</t>
+          <t>405498</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PROSSEG COR DE SEGS FERNANDOPOLI</t>
+          <t>VILAR CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -8507,81 +7632,48 @@
       </c>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B89" t="n">
-        <v>531</v>
-      </c>
-      <c r="C89" t="n">
-        <v>926</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>404131</t>
+          <t>405498</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>RAVANA ADM, CONS E CORRET DE SEG</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>6214</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>HUGO DAS NEVES CORDEIRO 00146628845</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>8</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 891,16</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 956,91</t>
-        </is>
-      </c>
+          <t>VILAR CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
+          <t>FERNANDOPOLIS MERCADO</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -8614,78 +7706,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
+      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n">
-        <v>531</v>
-      </c>
-      <c r="C90" t="n">
-        <v>927</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>404131</t>
+          <t>511487</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>RAVANA ADM, CONS E CORRET DE SEG</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>54155</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>PATRICIA DARIM PIEROBON DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>4</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 271,71</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 291,75</t>
-        </is>
-      </c>
+          <t>VITURI E PALMA CORRETORA DE SEG</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
@@ -8727,2446 +7782,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n">
-        <v>531</v>
-      </c>
-      <c r="C91" t="n">
-        <v>990</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>404131</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>RAVANA ADM, CONS E CORRET DE SEG</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>186821</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>GLEISON GONCALVES DIAS</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>2024-09-20</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>2025-09-20</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>6</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.661,36</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.783,96</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n">
-        <v>531</v>
-      </c>
-      <c r="C92" t="n">
-        <v>917</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>511438</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>RISSI CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>4110</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>MALTEC</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>6</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.908,60</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.049,42</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>Equipamento</t>
-        </is>
-      </c>
-      <c r="AA92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B93" t="n">
-        <v>531</v>
-      </c>
-      <c r="C93" t="n">
-        <v>990</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>511444</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>S P FRANCO CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>187000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>RODRIGO PEREIRA DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>10</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.336,66</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.804,30</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B94" t="n">
-        <v>531</v>
-      </c>
-      <c r="C94" t="n">
-        <v>990</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>405449</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>186596</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>SANDRA APARECIDA BORGES CUNHA VIANA</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr">
+      <c r="AB90" t="inlineStr">
         <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>2024-09-26</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>2025-09-26</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>3</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.224,69</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.315,07</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B95" t="n">
-        <v>531</v>
-      </c>
-      <c r="C95" t="n">
-        <v>990</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>405449</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>186614</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>KAIQUE CESAR RIBEIRO</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>10</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.347,48</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.520,72</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B96" t="n">
-        <v>531</v>
-      </c>
-      <c r="C96" t="n">
-        <v>990</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>405449</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>186899</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>LIOMAR GONCALVES REZENDE CAMPOS</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>6</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.271,85</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.164,21</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B97" t="n">
-        <v>531</v>
-      </c>
-      <c r="C97" t="n">
-        <v>990</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>405449</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>186912</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>DIOCESE DE GOIAS</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.805,34</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.086,17</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B98" t="n">
-        <v>531</v>
-      </c>
-      <c r="C98" t="n">
-        <v>990</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>405449</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>186913</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>INDALECIO NUNES DIAS</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>6</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.240,05</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.331,56</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B99" t="n">
-        <v>531</v>
-      </c>
-      <c r="C99" t="n">
-        <v>990</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>405449</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>187075</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>NELCI ANTONIA DE LIMA SA</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>4</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.690,40</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.036,55</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>405449</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>FERNANDOPOLIS MERCADO</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B101" t="n">
-        <v>531</v>
-      </c>
-      <c r="C101" t="n">
-        <v>990</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>405166</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>SEGURANCA ADMR.E CORR.SEGS.LTDA.</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>187107</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>LUIZ CARLOS SANTOS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>2</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.845,62</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.981,82</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B102" t="n">
-        <v>531</v>
-      </c>
-      <c r="C102" t="n">
-        <v>990</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>404914</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>SEGUROESTE CORR.DE SEGS.S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>187073</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>ANDALICIO VOLPI</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>4</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.576,39</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.766,52</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>404914</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>SEGUROESTE CORR.DE SEGS.S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>FERNANDOPOLIS MERCADO</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B104" t="n">
-        <v>531</v>
-      </c>
-      <c r="C104" t="n">
-        <v>927</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>404049</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>TOTAL SUPORT COR DE SEGS E CONS</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>54201</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>JAINE HENRIQUE CANOSSA</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>8</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 626,19</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 672,35</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B105" t="n">
-        <v>531</v>
-      </c>
-      <c r="C105" t="n">
-        <v>990</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>404049</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>TOTAL SUPORT COR DE SEGS E CONS</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>186577</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>SUELI APARECIDA SCHIAVETTO ANDREU</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>6</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.192,56</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.354,37</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>404049</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>TOTAL SUPORT COR DE SEGS E CONS</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>FERNANDOPOLIS MERCADO</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y106" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B107" t="n">
-        <v>531</v>
-      </c>
-      <c r="C107" t="n">
-        <v>927</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>504336</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>TOTALIS CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>53977</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>RAUL CARLOS GOMES TORRES</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>4</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 130,21</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 139,81</t>
-        </is>
-      </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>402465</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>TUTA ADM E CORR DE SEGS SC LTDA</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>402465</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>TUTA ADM E CORR DE SEGS SC LTDA</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>FERNANDOPOLIS MERCADO</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y109" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>403807</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>UNICA MENEZES ASSES ADM COR SEG</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>403807</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>UNICA MENEZES ASSES ADM COR SEG</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>FERNANDOPOLIS MERCADO</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>403808</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>UNICA MENEZES ASSES ADM COR SEG</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>FERNANDOPOLIS MERCADO</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y112" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>401202</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>VALDIR DECCO</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>FERNANDOPOLIS MERCADO</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>405498</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>VILAR CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y114" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>405498</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>VILAR CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>FERNANDOPOLIS MERCADO</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>511487</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>VITURI E PALMA CORRETORA DE SEG</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>SAO JOSE RIO PRETO MERCADO</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>438.862.898-00</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>Leonardo Torrezan Bataiola</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
